--- a/data/trans_orig/P37-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>111421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93370</v>
+        <v>94244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131458</v>
+        <v>132039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1910206607843971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.160073882942547</v>
+        <v>0.161573191808369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2253728796526031</v>
+        <v>0.2263681729651399</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -765,19 +765,19 @@
         <v>189826</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165227</v>
+        <v>166256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214146</v>
+        <v>215374</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2058111977094169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1791399220505434</v>
+        <v>0.1802564425668623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2321787994103608</v>
+        <v>0.2335096922626669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -786,19 +786,19 @@
         <v>301247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>272587</v>
+        <v>270549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>333731</v>
+        <v>333509</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2000812234954777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1810456991335889</v>
+        <v>0.1796925496542535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2216561336180875</v>
+        <v>0.2215086834853852</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>471870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451833</v>
+        <v>451252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489921</v>
+        <v>489047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8089793392156029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7746271203473969</v>
+        <v>0.7736318270348601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8399261170574529</v>
+        <v>0.8384268081916311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>704</v>
@@ -836,19 +836,19 @@
         <v>732507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>708187</v>
+        <v>706959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>757106</v>
+        <v>756077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7941888022905831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7678212005896392</v>
+        <v>0.7664903077373331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8208600779494566</v>
+        <v>0.8197435574331382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1162</v>
@@ -857,19 +857,19 @@
         <v>1204377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1171893</v>
+        <v>1172115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1233037</v>
+        <v>1235075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7999187765045224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7783438663819124</v>
+        <v>0.7784913165146146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8189543008664102</v>
+        <v>0.8203074503457464</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>149330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>129659</v>
+        <v>129247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172794</v>
+        <v>172728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1385388177211785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1202889719818933</v>
+        <v>0.1199072900144294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1603071473612648</v>
+        <v>0.160245735814672</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -982,19 +982,19 @@
         <v>168983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146099</v>
+        <v>146897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192979</v>
+        <v>192866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1597887648725169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1381501465465352</v>
+        <v>0.1389044281006526</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1824790687910004</v>
+        <v>0.1823729721092572</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -1003,19 +1003,19 @@
         <v>318313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>284315</v>
+        <v>287490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>349500</v>
+        <v>349701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1490625086190745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1331418504123465</v>
+        <v>0.1346284864857116</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1636672170576685</v>
+        <v>0.1637613549623478</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>928564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>905100</v>
+        <v>905166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>948235</v>
+        <v>948647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8614611822788215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8396928526387353</v>
+        <v>0.8397542641853281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8797110280181067</v>
+        <v>0.8800927099855705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>868</v>
@@ -1053,19 +1053,19 @@
         <v>888555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>864559</v>
+        <v>864672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>911439</v>
+        <v>910641</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8402112351274831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8175209312089996</v>
+        <v>0.8176270278907428</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8618498534534648</v>
+        <v>0.8610955718993475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -1074,19 +1074,19 @@
         <v>1817119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1785932</v>
+        <v>1785731</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1851117</v>
+        <v>1847942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8509374913809254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8363327829423315</v>
+        <v>0.8362386450376522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8668581495876536</v>
+        <v>0.8653715135142884</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>124481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102646</v>
+        <v>102605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144723</v>
+        <v>146681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1109859576608102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09151769584630252</v>
+        <v>0.09148125812648795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1290329388028037</v>
+        <v>0.1307786693819107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1199,19 +1199,19 @@
         <v>124282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104105</v>
+        <v>104174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145817</v>
+        <v>145639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1250394914058187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1047402114927745</v>
+        <v>0.1048095966632174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1467061388625746</v>
+        <v>0.1465271976599168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -1220,19 +1220,19 @@
         <v>248763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220739</v>
+        <v>220839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280396</v>
+        <v>287498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1175887182712604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1043421153781743</v>
+        <v>0.1043892605270888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1325412945942935</v>
+        <v>0.1358983141397769</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>997113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>976871</v>
+        <v>974913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1018948</v>
+        <v>1018989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8890140423391898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8709670611971961</v>
+        <v>0.8692213306180893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9084823041536975</v>
+        <v>0.908518741873512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>863</v>
@@ -1270,19 +1270,19 @@
         <v>869658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>848123</v>
+        <v>848301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>889835</v>
+        <v>889766</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8749605085941813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8532938611374256</v>
+        <v>0.8534728023400832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8952597885072254</v>
+        <v>0.8951904033367822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1843</v>
@@ -1291,19 +1291,19 @@
         <v>1866771</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1835138</v>
+        <v>1828036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1894795</v>
+        <v>1894695</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8824112817287396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8674587054057065</v>
+        <v>0.8641016858602228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8956578846218257</v>
+        <v>0.8956107394729111</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>58994</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44881</v>
+        <v>45059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73937</v>
+        <v>74452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1321882416754769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1005658857092839</v>
+        <v>0.1009647789123822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1656729739011181</v>
+        <v>0.1668250495427522</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1416,19 +1416,19 @@
         <v>44890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32609</v>
+        <v>33645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58859</v>
+        <v>59638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1319347097418537</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09584157824964495</v>
+        <v>0.09888574979822687</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1729915740501251</v>
+        <v>0.1752814766577772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1437,19 +1437,19 @@
         <v>103883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85902</v>
+        <v>84969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122936</v>
+        <v>122731</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1320785669101029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1092167171763823</v>
+        <v>0.1080307233069767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1563024166406136</v>
+        <v>0.1560411087975713</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>387291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372348</v>
+        <v>371833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>401404</v>
+        <v>401226</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8678117583245232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.834327026098883</v>
+        <v>0.8331749504572478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8994341142907163</v>
+        <v>0.8990352210876177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>295</v>
@@ -1487,19 +1487,19 @@
         <v>295352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>281383</v>
+        <v>280604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>307633</v>
+        <v>306597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8680652902581464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8270084259498749</v>
+        <v>0.8247185233422228</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9041584217503552</v>
+        <v>0.9011142502017732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>672</v>
@@ -1508,19 +1508,19 @@
         <v>682644</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>663591</v>
+        <v>663796</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700625</v>
+        <v>701558</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8679214330898971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8436975833593865</v>
+        <v>0.8439588912024287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8907832828236176</v>
+        <v>0.8919692766930233</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>444226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>405194</v>
+        <v>407755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>483897</v>
+        <v>482826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1375710100625514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1254832799499112</v>
+        <v>0.1262763963581394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.149856839958431</v>
+        <v>0.1495250509432754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>503</v>
@@ -1633,19 +1633,19 @@
         <v>527980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>488167</v>
+        <v>484322</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>566005</v>
+        <v>569576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1593156934228894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1473020139752567</v>
+        <v>0.1461420368975861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1707894403171079</v>
+        <v>0.1718669696997591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>952</v>
@@ -1654,19 +1654,19 @@
         <v>972206</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>915783</v>
+        <v>914437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1035295</v>
+        <v>1027857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1485845716655558</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1399612123228854</v>
+        <v>0.1397556352536286</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1582265511170541</v>
+        <v>0.1570897349333776</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2784838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2745167</v>
+        <v>2746238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2823870</v>
+        <v>2821309</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8624289899374487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8501431600415691</v>
+        <v>0.8504749490567246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8745167200500888</v>
+        <v>0.8737236036418606</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2730</v>
@@ -1704,19 +1704,19 @@
         <v>2786072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2748047</v>
+        <v>2744476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2825885</v>
+        <v>2829730</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8406843065771107</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8292105596828921</v>
+        <v>0.828133030300241</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8526979860247433</v>
+        <v>0.853857963102414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5447</v>
@@ -1725,19 +1725,19 @@
         <v>5570911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5507822</v>
+        <v>5515260</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5627334</v>
+        <v>5628680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8514154283344442</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8417734488829464</v>
+        <v>0.8429102650666227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8600387876771147</v>
+        <v>0.8602443647463716</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>156914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132959</v>
+        <v>134948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180829</v>
+        <v>182079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1503102306836882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1273629175152379</v>
+        <v>0.129268962017324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.173218476270563</v>
+        <v>0.1744160351574812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>196</v>
@@ -2090,19 +2090,19 @@
         <v>209827</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>182561</v>
+        <v>185493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>237352</v>
+        <v>239887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1873573514925696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1630112834568701</v>
+        <v>0.1656296518921344</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2119348383052945</v>
+        <v>0.2141983917114398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>339</v>
@@ -2111,19 +2111,19 @@
         <v>366741</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>331598</v>
+        <v>333259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>398781</v>
+        <v>402099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1694843272720625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1532437035889192</v>
+        <v>0.1540112492549663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1842911635597139</v>
+        <v>0.1858245806873967</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>887021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>863106</v>
+        <v>861856</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>910976</v>
+        <v>908987</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8496897693163118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8267815237294371</v>
+        <v>0.8255839648425189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8726370824847621</v>
+        <v>0.8707310379826763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>835</v>
@@ -2161,19 +2161,19 @@
         <v>910101</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>882576</v>
+        <v>880041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>937367</v>
+        <v>934435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8126426485074304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7880651616947056</v>
+        <v>0.7858016082885605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8369887165431301</v>
+        <v>0.8343703481078657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1670</v>
@@ -2182,19 +2182,19 @@
         <v>1797122</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1765082</v>
+        <v>1761764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1832265</v>
+        <v>1830604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8305156727279375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.815708836440286</v>
+        <v>0.8141754193126031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8467562964110804</v>
+        <v>0.8459887507450335</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>175144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150202</v>
+        <v>150610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200180</v>
+        <v>199311</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1796287634296063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1540487363521508</v>
+        <v>0.1544672427801736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2053063603513197</v>
+        <v>0.2044146419612342</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>184</v>
@@ -2307,19 +2307,19 @@
         <v>196231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170893</v>
+        <v>169252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225276</v>
+        <v>226195</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1795025093399597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1563248398408104</v>
+        <v>0.1548240477092573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2060723530085685</v>
+        <v>0.2069129387588535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>345</v>
@@ -2328,19 +2328,19 @@
         <v>371374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>338108</v>
+        <v>334308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408864</v>
+        <v>408027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1795620298543578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1634776786904949</v>
+        <v>0.1616402826082729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1976884467708835</v>
+        <v>0.1972841734955016</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>799887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>774851</v>
+        <v>775720</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>824829</v>
+        <v>824421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8203712365703937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7946936396486802</v>
+        <v>0.7955853580387655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8459512636478492</v>
+        <v>0.8455327572198265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>835</v>
@@ -2378,19 +2378,19 @@
         <v>896960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>867915</v>
+        <v>866996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>922298</v>
+        <v>923939</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8204974906600403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7939276469914316</v>
+        <v>0.7930870612411466</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8436751601591896</v>
+        <v>0.8451759522907429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1596</v>
@@ -2399,19 +2399,19 @@
         <v>1696848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1659358</v>
+        <v>1660195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1730114</v>
+        <v>1733914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8204379701456421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8023115532291165</v>
+        <v>0.8027158265044985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8365223213095051</v>
+        <v>0.8383597173917271</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>169784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147542</v>
+        <v>145071</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196755</v>
+        <v>196107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1924695064963531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.167255436105859</v>
+        <v>0.164454508775871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2230448905370201</v>
+        <v>0.2223098297381578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -2524,19 +2524,19 @@
         <v>160929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139557</v>
+        <v>137619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184362</v>
+        <v>184214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1837522664171768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1593484973656265</v>
+        <v>0.1571364765473756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2105084337677939</v>
+        <v>0.2103383910792254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>302</v>
@@ -2545,19 +2545,19 @@
         <v>330713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299063</v>
+        <v>299278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362032</v>
+        <v>367141</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1881265986861847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1701223080533846</v>
+        <v>0.1702448496218534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2059423207856534</v>
+        <v>0.2088483586191863</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>712349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>685378</v>
+        <v>686026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>734591</v>
+        <v>737062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8075304935036469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.77695510946298</v>
+        <v>0.7776901702618424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8327445638941411</v>
+        <v>0.835545491224129</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>672</v>
@@ -2595,19 +2595,19 @@
         <v>714867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>691434</v>
+        <v>691582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>736239</v>
+        <v>738177</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8162477335828232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7894915662322062</v>
+        <v>0.7896616089207746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8406515026343734</v>
+        <v>0.8428635234526243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1346</v>
@@ -2616,19 +2616,19 @@
         <v>1427216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1395897</v>
+        <v>1390788</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1458866</v>
+        <v>1458651</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8118734013138154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7940576792143464</v>
+        <v>0.7911516413808138</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8298776919466154</v>
+        <v>0.8297551503781466</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>95824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78567</v>
+        <v>77518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115542</v>
+        <v>115750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1904968415798446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1561890150079383</v>
+        <v>0.1541044942759522</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2296944164613018</v>
+        <v>0.2301095155464049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -2741,19 +2741,19 @@
         <v>80236</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64718</v>
+        <v>64284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98868</v>
+        <v>98271</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1772255354470108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1429493491156167</v>
+        <v>0.141989676303627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2183781232384126</v>
+        <v>0.2170591854097175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -2762,19 +2762,19 @@
         <v>176060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150347</v>
+        <v>154058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202050</v>
+        <v>203864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1842103224126849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1573068502796824</v>
+        <v>0.16118904805145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.211403047725382</v>
+        <v>0.2133011437902759</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>407199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>387481</v>
+        <v>387273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>424456</v>
+        <v>425505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8095031584201554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7703055835386982</v>
+        <v>0.7698904844535952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8438109849920618</v>
+        <v>0.8458955057240478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -2812,19 +2812,19 @@
         <v>372500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353868</v>
+        <v>354465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388018</v>
+        <v>388452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8227744645529892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.781621876761588</v>
+        <v>0.7829408145902822</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8570506508843834</v>
+        <v>0.8580103236963725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -2833,19 +2833,19 @@
         <v>779698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>753708</v>
+        <v>751894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>805411</v>
+        <v>801700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8157896775873151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7885969522746179</v>
+        <v>0.7866988562097239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8426931497203174</v>
+        <v>0.8388109519485498</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>597666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>554834</v>
+        <v>551260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>643467</v>
+        <v>643633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1755711806001866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1629890590673409</v>
+        <v>0.1619390239198583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1890259801799256</v>
+        <v>0.189074570424914</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>600</v>
@@ -2958,19 +2958,19 @@
         <v>647223</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>600932</v>
+        <v>596236</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>694788</v>
+        <v>696332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1827461695837861</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1696757655388976</v>
+        <v>0.1683497550314146</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1961763698193363</v>
+        <v>0.1966122068721602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1143</v>
@@ -2979,19 +2979,19 @@
         <v>1244889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1178441</v>
+        <v>1177792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1315295</v>
+        <v>1305816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1792297092113476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1696630322221897</v>
+        <v>0.1695695711176216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1893662685072121</v>
+        <v>0.1880016075649457</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2806455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2760654</v>
+        <v>2760488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2849287</v>
+        <v>2852861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8244288193998134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8109740198200742</v>
+        <v>0.8109254295750861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.837010940932659</v>
+        <v>0.8380609760801417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2683</v>
@@ -3029,19 +3029,19 @@
         <v>2894428</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2846863</v>
+        <v>2845319</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2940719</v>
+        <v>2945415</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8172538304162139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8038236301806637</v>
+        <v>0.8033877931278399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8303242344611024</v>
+        <v>0.8316502449685854</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5328</v>
@@ -3050,19 +3050,19 @@
         <v>5700883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5630477</v>
+        <v>5639956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5767331</v>
+        <v>5767980</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8207702907886524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8106337314927876</v>
+        <v>0.8119983924350543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8303369677778103</v>
+        <v>0.8304304288823785</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>164245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142440</v>
+        <v>144424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190308</v>
+        <v>190322</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1456076776592629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1262772148172231</v>
+        <v>0.1280357503942283</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1687131414324051</v>
+        <v>0.1687257901361089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -3415,19 +3415,19 @@
         <v>212648</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184239</v>
+        <v>184352</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242243</v>
+        <v>242819</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.168827193772429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1462727504032702</v>
+        <v>0.1463621811883548</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1923233276779605</v>
+        <v>0.1927805423009452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>348</v>
@@ -3436,19 +3436,19 @@
         <v>376893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>337496</v>
+        <v>342412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>415891</v>
+        <v>414332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1578571776051245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1413563436948976</v>
+        <v>0.1434149924245478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1741909004414866</v>
+        <v>0.1735380392162089</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>963752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>937689</v>
+        <v>937675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>985557</v>
+        <v>983573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8543923223407371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8312868585675949</v>
+        <v>0.831274209863891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8737227851827769</v>
+        <v>0.8719642496057717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1002</v>
@@ -3486,19 +3486,19 @@
         <v>1046913</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1017318</v>
+        <v>1016742</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1075322</v>
+        <v>1075209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8311728062275711</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8076766723220397</v>
+        <v>0.8072194576990548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.85372724959673</v>
+        <v>0.8536378188116451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1906</v>
@@ -3507,19 +3507,19 @@
         <v>2010665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1971667</v>
+        <v>1973226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2050062</v>
+        <v>2045146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8421428223948756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8258090995585131</v>
+        <v>0.8264619607837912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8586436563051024</v>
+        <v>0.8565850075754523</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>131075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109203</v>
+        <v>111400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151718</v>
+        <v>151632</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1442251713114801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1201587793780521</v>
+        <v>0.1225757338014493</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1669381166656926</v>
+        <v>0.1668444081971707</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>157</v>
@@ -3632,19 +3632,19 @@
         <v>186425</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161210</v>
+        <v>161443</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>213750</v>
+        <v>212160</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1852257353602895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1601731394065263</v>
+        <v>0.1604044221500412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2123745907728328</v>
+        <v>0.2107954518569037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>292</v>
@@ -3653,19 +3653,19 @@
         <v>317501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>285162</v>
+        <v>286257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352195</v>
+        <v>354854</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1657706489057061</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1488862365245747</v>
+        <v>0.1494578087921737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.183884993046813</v>
+        <v>0.1852732128367587</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>777750</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757107</v>
+        <v>757193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>799622</v>
+        <v>797425</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8557748286885198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8330618833343073</v>
+        <v>0.8331555918028292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8798412206219479</v>
+        <v>0.8774242661985506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>794</v>
@@ -3703,19 +3703,19 @@
         <v>820050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>792725</v>
+        <v>794315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>845265</v>
+        <v>845032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8147742646397105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7876254092271672</v>
+        <v>0.7892045481430964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8398268605934736</v>
+        <v>0.8395955778499589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1540</v>
@@ -3724,19 +3724,19 @@
         <v>1597799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1563105</v>
+        <v>1560446</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1630138</v>
+        <v>1629043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8342293510942939</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8161150069531869</v>
+        <v>0.8147267871632411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8511137634754252</v>
+        <v>0.8505421912078263</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>133357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114101</v>
+        <v>113452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154368</v>
+        <v>156845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1618878467111358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1385120158874927</v>
+        <v>0.1377242374511782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1873951358953739</v>
+        <v>0.1904011794316997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -3849,19 +3849,19 @@
         <v>117960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98042</v>
+        <v>98001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140428</v>
+        <v>140070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1529838544099336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1271522445995888</v>
+        <v>0.1270990131224847</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1821236326530866</v>
+        <v>0.1816590490500141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -3870,19 +3870,19 @@
         <v>251316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>222404</v>
+        <v>222478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282514</v>
+        <v>282262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1575829663162787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1394538705466084</v>
+        <v>0.139500606092257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1771449379877784</v>
+        <v>0.1769870020755586</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>690402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669391</v>
+        <v>666914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>709658</v>
+        <v>710307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8381121532888642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8126048641046262</v>
+        <v>0.8095988205683005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8614879841125074</v>
+        <v>0.8622757625488219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>627</v>
@@ -3920,19 +3920,19 @@
         <v>653099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630631</v>
+        <v>630989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>673017</v>
+        <v>673058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8470161455900664</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8178763673469133</v>
+        <v>0.8183409509499859</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8728477554004113</v>
+        <v>0.8729009868775149</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1279</v>
@@ -3941,19 +3941,19 @@
         <v>1343502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312304</v>
+        <v>1312556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1372414</v>
+        <v>1372340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8424170336837213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8228550620122218</v>
+        <v>0.8230129979244418</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8605461294533915</v>
+        <v>0.860499393907743</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>98602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81497</v>
+        <v>79438</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117817</v>
+        <v>117667</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1945957575164</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1608392651480035</v>
+        <v>0.1567758545159797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2325185731198653</v>
+        <v>0.2322213012650768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -4066,19 +4066,19 @@
         <v>93552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75423</v>
+        <v>75624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113209</v>
+        <v>112071</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1910406523341323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1540187419991061</v>
+        <v>0.1544299403825557</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2311822773747865</v>
+        <v>0.2288582612161757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>177</v>
@@ -4087,19 +4087,19 @@
         <v>192154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165951</v>
+        <v>169132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218315</v>
+        <v>221010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1928485385209186</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1665507875282801</v>
+        <v>0.1697438338087173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2191045074141644</v>
+        <v>0.2218090514950614</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>408099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388884</v>
+        <v>389034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>425204</v>
+        <v>427263</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8054042424836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7674814268801345</v>
+        <v>0.7677786987349231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8391607348519963</v>
+        <v>0.8432241454840202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -4137,19 +4137,19 @@
         <v>396146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376489</v>
+        <v>377627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414275</v>
+        <v>414074</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8089593476658676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7688177226252135</v>
+        <v>0.7711417387838242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.845981258000894</v>
+        <v>0.8455700596174442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>749</v>
@@ -4158,19 +4158,19 @@
         <v>804244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>778083</v>
+        <v>775388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>830447</v>
+        <v>827266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8071514614790813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7808954925858355</v>
+        <v>0.7781909485049386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8334492124717194</v>
+        <v>0.8302561661912827</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>527279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>488372</v>
+        <v>487274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>569709</v>
+        <v>570876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1565888745387551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.145034597289887</v>
+        <v>0.1447083623848121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.169189433296951</v>
+        <v>0.1695362085881813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>524</v>
@@ -4283,19 +4283,19 @@
         <v>610585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>563631</v>
+        <v>561991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>659869</v>
+        <v>663701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1731275483126005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1598141490720654</v>
+        <v>0.1593490391809871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.187101649111818</v>
+        <v>0.188188313204849</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1053</v>
@@ -4304,19 +4304,19 @@
         <v>1137864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1073979</v>
+        <v>1079400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1204927</v>
+        <v>1200627</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1650495413530276</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.155782883549109</v>
+        <v>0.1565692300520547</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1747772438647772</v>
+        <v>0.1741535135621634</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2840003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2797573</v>
+        <v>2796406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2878910</v>
+        <v>2880008</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8434111254612449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.830810566703049</v>
+        <v>0.8304637914118186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8549654027101137</v>
+        <v>0.8552916376151879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2798</v>
@@ -4354,19 +4354,19 @@
         <v>2916207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2866923</v>
+        <v>2863091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2963161</v>
+        <v>2964801</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8268724516873994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.812898350888182</v>
+        <v>0.8118116867951513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8401858509279347</v>
+        <v>0.8406509608190131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5474</v>
@@ -4375,19 +4375,19 @@
         <v>5756211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5689148</v>
+        <v>5693448</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5820096</v>
+        <v>5814675</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8349504586469724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8252227561352228</v>
+        <v>0.8258464864378365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8442171164508908</v>
+        <v>0.8434307699479452</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>127003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109172</v>
+        <v>109378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147521</v>
+        <v>147890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2546491878536434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2188962742641305</v>
+        <v>0.2193094729375641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2957889254494742</v>
+        <v>0.2965273191801984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>357</v>
@@ -4740,19 +4740,19 @@
         <v>215516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195280</v>
+        <v>197297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>235638</v>
+        <v>237409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3456105024935094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3131596967437598</v>
+        <v>0.3163941187992969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3778790053537688</v>
+        <v>0.3807199415357421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>503</v>
@@ -4761,19 +4761,19 @@
         <v>342520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313693</v>
+        <v>316309</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>370168</v>
+        <v>373230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3051888742234825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2795044593202493</v>
+        <v>0.281835095645693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3298242012225884</v>
+        <v>0.3325520918237553</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>371736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351218</v>
+        <v>350849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389567</v>
+        <v>389361</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7453508121463566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7042110745505261</v>
+        <v>0.7034726808198015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7811037257358695</v>
+        <v>0.780690527062436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>504</v>
@@ -4811,19 +4811,19 @@
         <v>408064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387942</v>
+        <v>386171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428300</v>
+        <v>426283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6543894975064904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6221209946462323</v>
+        <v>0.6192800584642578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6868403032562405</v>
+        <v>0.6836058812007031</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>813</v>
@@ -4832,19 +4832,19 @@
         <v>779800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752152</v>
+        <v>749090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808627</v>
+        <v>806011</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6948111257765175</v>
+        <v>0.6948111257765176</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6701757987774115</v>
+        <v>0.6674479081762449</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7204955406797507</v>
+        <v>0.718164904354307</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>273522</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>244384</v>
+        <v>244754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302163</v>
+        <v>302077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2848783847401545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2545307856704227</v>
+        <v>0.2549156186927632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3147079322752415</v>
+        <v>0.3146181445764011</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>673</v>
@@ -4957,19 +4957,19 @@
         <v>392071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>367848</v>
+        <v>365236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>421584</v>
+        <v>417185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3513658589240063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3296572485692576</v>
+        <v>0.3273169661407768</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3778142867371969</v>
+        <v>0.3738721411640484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1019</v>
@@ -4978,19 +4978,19 @@
         <v>665594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>628842</v>
+        <v>625371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705730</v>
+        <v>703074</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3206156212518705</v>
+        <v>0.3206156212518704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3029123500940378</v>
+        <v>0.3012404139752207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3399494427722443</v>
+        <v>0.3386697891877933</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>686615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>657974</v>
+        <v>658060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>715753</v>
+        <v>715383</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7151216152598456</v>
+        <v>0.7151216152598455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6852920677247587</v>
+        <v>0.6853818554235989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7454692143295774</v>
+        <v>0.7450843813072369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -5028,19 +5028,19 @@
         <v>723778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>694265</v>
+        <v>698664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>748001</v>
+        <v>750613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6486341410759936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6221857132628033</v>
+        <v>0.6261278588359518</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6703427514307424</v>
+        <v>0.6726830338592232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1498</v>
@@ -5049,19 +5049,19 @@
         <v>1410392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1370256</v>
+        <v>1372912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1447144</v>
+        <v>1450615</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6793843787481296</v>
+        <v>0.6793843787481295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6600505572277557</v>
+        <v>0.6613302108122068</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6970876499059621</v>
+        <v>0.6987595860247793</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>349090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>317544</v>
+        <v>318918</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>382206</v>
+        <v>379996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3335852699197659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3034402305880762</v>
+        <v>0.3047538231319704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3652308247170619</v>
+        <v>0.3631184912524736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>639</v>
@@ -5174,19 +5174,19 @@
         <v>391139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>364657</v>
+        <v>366176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>420547</v>
+        <v>417091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3733519743106624</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3480739666660271</v>
+        <v>0.3495241761162172</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4014221196206599</v>
+        <v>0.3981235567508202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1057</v>
@@ -5195,19 +5195,19 @@
         <v>740229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>702831</v>
+        <v>697794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>784911</v>
+        <v>780408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3534796585166479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3356207957747147</v>
+        <v>0.3332156429313486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3748165781252779</v>
+        <v>0.3726660936527739</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>697389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664273</v>
+        <v>666483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>728935</v>
+        <v>727561</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6664147300802342</v>
+        <v>0.6664147300802341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.634769175282938</v>
+        <v>0.6368815087475264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6965597694119237</v>
+        <v>0.6952461768680296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>877</v>
@@ -5245,19 +5245,19 @@
         <v>656503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627095</v>
+        <v>630551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682985</v>
+        <v>681466</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6266480256893376</v>
+        <v>0.6266480256893378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5985778803793401</v>
+        <v>0.6018764432491798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6519260333339728</v>
+        <v>0.6504758238837828</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1488</v>
@@ -5266,19 +5266,19 @@
         <v>1353892</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1309210</v>
+        <v>1313713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1391290</v>
+        <v>1396327</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.646520341483352</v>
+        <v>0.6465203414833519</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6251834218747219</v>
+        <v>0.6273339063472262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6643792042252853</v>
+        <v>0.6667843570686512</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>329916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>300161</v>
+        <v>304161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>359521</v>
+        <v>363333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3380528202907834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3075644624343969</v>
+        <v>0.3116632631357301</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3683889674117841</v>
+        <v>0.3722945672351917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>535</v>
@@ -5391,19 +5391,19 @@
         <v>326539</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>300849</v>
+        <v>303579</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352122</v>
+        <v>352443</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3595246732272697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3312402585338087</v>
+        <v>0.3342461149420445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3876923087409581</v>
+        <v>0.3880453955963813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>939</v>
@@ -5412,19 +5412,19 @@
         <v>656454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>614220</v>
+        <v>614884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>695612</v>
+        <v>692880</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3484031195284233</v>
+        <v>0.3484031195284232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3259878218556675</v>
+        <v>0.3263405041381303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3691854240128006</v>
+        <v>0.3677355492343209</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>646013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>616408</v>
+        <v>612596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675768</v>
+        <v>671768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6619471797092166</v>
+        <v>0.6619471797092165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.631611032588216</v>
+        <v>0.6277054327648083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6924355375656031</v>
+        <v>0.6883367368642698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>785</v>
@@ -5462,19 +5462,19 @@
         <v>581712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>556129</v>
+        <v>555808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>607402</v>
+        <v>604672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6404753267727302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6123076912590421</v>
+        <v>0.6119546044036185</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6687597414661914</v>
+        <v>0.6657538850579555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1328</v>
@@ -5483,19 +5483,19 @@
         <v>1227726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1188568</v>
+        <v>1191300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1269960</v>
+        <v>1269296</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6515968804715767</v>
+        <v>0.6515968804715766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6308145759871996</v>
+        <v>0.6322644507656791</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6740121781443323</v>
+        <v>0.6736594958618695</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1079531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1027382</v>
+        <v>1024160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1135798</v>
+        <v>1141401</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3100957251933651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.295115885865855</v>
+        <v>0.2941904327380027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3262584979000307</v>
+        <v>0.3278677194755913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2204</v>
@@ -5608,19 +5608,19 @@
         <v>1325265</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1275229</v>
+        <v>1274178</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1370742</v>
+        <v>1376858</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3586331258428356</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3450927834319271</v>
+        <v>0.3448084814175793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3709397859434611</v>
+        <v>0.3725948469237238</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3518</v>
@@ -5629,19 +5629,19 @@
         <v>2404796</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2326308</v>
+        <v>2330109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2491375</v>
+        <v>2484480</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3350882231980965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3241516106788261</v>
+        <v>0.3246811271552061</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3471523206220602</v>
+        <v>0.346191558807882</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2401753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2345486</v>
+        <v>2339883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2453902</v>
+        <v>2457124</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6899042748066349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6737415020999693</v>
+        <v>0.6721322805244088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7048841141341449</v>
+        <v>0.7058095672619973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3100</v>
@@ -5679,19 +5679,19 @@
         <v>2370057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2324580</v>
+        <v>2318464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2420093</v>
+        <v>2421144</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6413668741571643</v>
+        <v>0.6413668741571644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6290602140565389</v>
+        <v>0.6274051530762761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6549072165680727</v>
+        <v>0.6551915185824206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5127</v>
@@ -5700,19 +5700,19 @@
         <v>4771810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4685231</v>
+        <v>4692126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4850298</v>
+        <v>4846497</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6649117768019035</v>
+        <v>0.6649117768019036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6528476793779397</v>
+        <v>0.653808441192118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6758483893211737</v>
+        <v>0.675318872844794</v>
       </c>
     </row>
     <row r="18">
